--- a/excel/excel1.xlsx
+++ b/excel/excel1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mine\scripeFile\GitHub\python-dataExcel\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62034D01-73D1-4983-9D70-BCB31DC5951A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE978F2D-FE1F-47BE-8F45-463CF473FFCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7005" yWindow="1395" windowWidth="21600" windowHeight="14205" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2985" yWindow="1395" windowWidth="21600" windowHeight="14205" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,19 +39,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>22..369</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>column3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SSSC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BBBC</t>
+    <t>SSSF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BBBG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>22..3692</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -95,12 +95,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -387,26 +384,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="24.625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="19.25" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -422,59 +419,28 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3" s="2">
         <v>44664</v>
       </c>
       <c r="C3" s="1">
-        <v>11.456</v>
+        <v>11.456099999999999</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" s="2">
         <v>44665</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="1"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="1"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="1"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="1"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="1"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="1"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="1"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="1"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="1"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="1"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="1"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="1"/>
+        <v>6</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>